--- a/Tele.xlsx
+++ b/Tele.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e5855a3dc734606/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Briony\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25758D65-F592-4CE1-871C-0BDF77ABC043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76325582-8F13-43C9-AE5C-458B28090E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C6D9794-B3B6-45E0-B146-8FD667E3FE41}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>Normal</t>
   </si>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770BD577-7DAE-46F2-8DB1-0E2470EA8C28}">
-  <dimension ref="A1:BF10"/>
+  <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BF10"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2334,6 +2334,7046 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>1.2799999999999999E-4</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>65</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>65</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>204</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>15625</v>
+      </c>
+      <c r="U11">
+        <v>1593750</v>
+      </c>
+      <c r="V11">
+        <v>0.5</v>
+      </c>
+      <c r="W11">
+        <v>0.5</v>
+      </c>
+      <c r="X11">
+        <v>0.5</v>
+      </c>
+      <c r="Y11">
+        <v>0.5</v>
+      </c>
+      <c r="Z11">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="AA11">
+        <v>4.0094494630000002</v>
+      </c>
+      <c r="AB11">
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.79589258100000004</v>
+      </c>
+      <c r="AD11">
+        <v>4.2329999999999997</v>
+      </c>
+      <c r="AE11">
+        <v>1.396180862</v>
+      </c>
+      <c r="AF11">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AG11">
+        <v>0.24148706</v>
+      </c>
+      <c r="AH11">
+        <v>84.742999999999995</v>
+      </c>
+      <c r="AI11">
+        <v>5.3604030629999997</v>
+      </c>
+      <c r="AJ11">
+        <v>9.9</v>
+      </c>
+      <c r="AK11">
+        <v>1.9723082919999999</v>
+      </c>
+      <c r="AL11">
+        <v>0.3</v>
+      </c>
+      <c r="AM11">
+        <v>0.9</v>
+      </c>
+      <c r="AN11">
+        <v>9.6</v>
+      </c>
+      <c r="AO11">
+        <v>1.854723699</v>
+      </c>
+      <c r="AP11">
+        <v>1.034</v>
+      </c>
+      <c r="AQ11">
+        <v>5.9194594000000003E-2</v>
+      </c>
+      <c r="AR11">
+        <v>919398</v>
+      </c>
+      <c r="AS11">
+        <v>2276.727652</v>
+      </c>
+      <c r="AT11">
+        <v>0.8</v>
+      </c>
+      <c r="AU11">
+        <v>0.4</v>
+      </c>
+      <c r="AV11">
+        <v>2837.1</v>
+      </c>
+      <c r="AW11">
+        <v>478.27783770000002</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C12">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>130</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>204</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>400000</v>
+      </c>
+      <c r="U12">
+        <v>40800000</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>2.093</v>
+      </c>
+      <c r="AA12">
+        <v>4.4537693029999996</v>
+      </c>
+      <c r="AB12">
+        <v>1.597</v>
+      </c>
+      <c r="AC12">
+        <v>0.95668228799999999</v>
+      </c>
+      <c r="AD12">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="AE12">
+        <v>0.54809123299999996</v>
+      </c>
+      <c r="AF12">
+        <v>1.778</v>
+      </c>
+      <c r="AG12">
+        <v>3.606468633</v>
+      </c>
+      <c r="AH12">
+        <v>92.483000000000004</v>
+      </c>
+      <c r="AI12">
+        <v>5.9323857760000003</v>
+      </c>
+      <c r="AJ12">
+        <v>12</v>
+      </c>
+      <c r="AK12">
+        <v>7.416198487</v>
+      </c>
+      <c r="AL12">
+        <v>0.1</v>
+      </c>
+      <c r="AM12">
+        <v>0.3</v>
+      </c>
+      <c r="AN12">
+        <v>11.9</v>
+      </c>
+      <c r="AO12">
+        <v>7.4759614770000002</v>
+      </c>
+      <c r="AP12">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AQ12">
+        <v>3.1240998999999998E-2</v>
+      </c>
+      <c r="AR12">
+        <v>909690</v>
+      </c>
+      <c r="AS12">
+        <v>1128.954561</v>
+      </c>
+      <c r="AT12">
+        <v>0.8</v>
+      </c>
+      <c r="AU12">
+        <v>0.4</v>
+      </c>
+      <c r="AV12">
+        <v>1210.0999999999999</v>
+      </c>
+      <c r="AW12">
+        <v>131.5564138</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>443</v>
+      </c>
+      <c r="B13">
+        <v>5.31E-4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>60</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>100</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>3766.4783430000002</v>
+      </c>
+      <c r="U13">
+        <v>188323.91709999999</v>
+      </c>
+      <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0.6</v>
+      </c>
+      <c r="Y13">
+        <v>0.4</v>
+      </c>
+      <c r="Z13">
+        <v>8.5869999999999997</v>
+      </c>
+      <c r="AA13">
+        <v>8.9388724679999996</v>
+      </c>
+      <c r="AB13">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AC13">
+        <v>0.393974618</v>
+      </c>
+      <c r="AD13">
+        <v>1.165</v>
+      </c>
+      <c r="AE13">
+        <v>0.44048269000000001</v>
+      </c>
+      <c r="AF13">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AG13">
+        <v>0.16338910600000001</v>
+      </c>
+      <c r="AH13">
+        <v>89.239000000000004</v>
+      </c>
+      <c r="AI13">
+        <v>9.064226884</v>
+      </c>
+      <c r="AJ13">
+        <v>9</v>
+      </c>
+      <c r="AK13">
+        <v>1.7320508080000001</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>9</v>
+      </c>
+      <c r="AO13">
+        <v>1.7320508080000001</v>
+      </c>
+      <c r="AP13">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AQ13">
+        <v>2.3430749000000001E-2</v>
+      </c>
+      <c r="AR13">
+        <v>910689.2</v>
+      </c>
+      <c r="AS13">
+        <v>724.30722760000003</v>
+      </c>
+      <c r="AT13">
+        <v>0.4</v>
+      </c>
+      <c r="AU13">
+        <v>0.8</v>
+      </c>
+      <c r="AV13">
+        <v>1030.5999999999999</v>
+      </c>
+      <c r="AW13">
+        <v>86.546172650000003</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5683</v>
+      </c>
+      <c r="B14">
+        <v>90.974114999999998</v>
+      </c>
+      <c r="C14">
+        <v>2810</v>
+      </c>
+      <c r="D14">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>2950</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>5932</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>6.5952826000000006E-2</v>
+      </c>
+      <c r="U14">
+        <v>65.205360889999994</v>
+      </c>
+      <c r="V14">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="W14">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="X14">
+        <v>0.97100472000000004</v>
+      </c>
+      <c r="Y14">
+        <v>2.8995279999999998E-2</v>
+      </c>
+      <c r="Z14">
+        <v>31.454000000000001</v>
+      </c>
+      <c r="AA14">
+        <v>9.2757071969999991</v>
+      </c>
+      <c r="AB14">
+        <v>2.738</v>
+      </c>
+      <c r="AC14">
+        <v>1.7014864089999999</v>
+      </c>
+      <c r="AD14">
+        <v>12.843</v>
+      </c>
+      <c r="AE14">
+        <v>2.743563559</v>
+      </c>
+      <c r="AF14">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AG14">
+        <v>0.17523983600000001</v>
+      </c>
+      <c r="AH14">
+        <v>52.832000000000001</v>
+      </c>
+      <c r="AI14">
+        <v>12.622602580000001</v>
+      </c>
+      <c r="AJ14">
+        <v>4.8</v>
+      </c>
+      <c r="AK14">
+        <v>4.4899888639999999</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>4.8</v>
+      </c>
+      <c r="AO14">
+        <v>4.4899888639999999</v>
+      </c>
+      <c r="AP14">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="AQ14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AR14">
+        <v>917988.4</v>
+      </c>
+      <c r="AS14">
+        <v>3142.883491</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>15126.5</v>
+      </c>
+      <c r="AW14">
+        <v>2042.734993</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <v>5.5189000000000002E-2</v>
+      </c>
+      <c r="C15">
+        <v>7340</v>
+      </c>
+      <c r="D15">
+        <v>492</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>7844</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>760</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>16436</v>
+      </c>
+      <c r="S15">
+        <v>15</v>
+      </c>
+      <c r="T15">
+        <v>271.79329209999997</v>
+      </c>
+      <c r="U15">
+        <v>297812.96999999997</v>
+      </c>
+      <c r="V15">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="W15">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="X15">
+        <v>0.92382574799999995</v>
+      </c>
+      <c r="Y15">
+        <v>7.6174251999999998E-2</v>
+      </c>
+      <c r="Z15">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="AA15">
+        <v>3.6141539809999998</v>
+      </c>
+      <c r="AB15">
+        <v>1.53</v>
+      </c>
+      <c r="AC15">
+        <v>1.01909764</v>
+      </c>
+      <c r="AD15">
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="AE15">
+        <v>4.2619483809999998</v>
+      </c>
+      <c r="AF15">
+        <v>4.266</v>
+      </c>
+      <c r="AG15">
+        <v>5.4156203710000002</v>
+      </c>
+      <c r="AH15">
+        <v>88.061999999999998</v>
+      </c>
+      <c r="AI15">
+        <v>10.620566650000001</v>
+      </c>
+      <c r="AJ15">
+        <v>12.5</v>
+      </c>
+      <c r="AK15">
+        <v>7.7103826099999999</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>12.5</v>
+      </c>
+      <c r="AO15">
+        <v>7.7103826099999999</v>
+      </c>
+      <c r="AP15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AQ15">
+        <v>4.2848571000000002E-2</v>
+      </c>
+      <c r="AR15">
+        <v>920749.2</v>
+      </c>
+      <c r="AS15">
+        <v>2227.8851319999999</v>
+      </c>
+      <c r="AT15">
+        <v>2.9</v>
+      </c>
+      <c r="AU15">
+        <v>4.6357307949999997</v>
+      </c>
+      <c r="AV15">
+        <v>1409.1</v>
+      </c>
+      <c r="AW15">
+        <v>455.68463880000002</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>1.12E-4</v>
+      </c>
+      <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>65</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>65</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>204</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>17857.14286</v>
+      </c>
+      <c r="U16">
+        <v>1821428.571</v>
+      </c>
+      <c r="V16">
+        <v>0.5</v>
+      </c>
+      <c r="W16">
+        <v>0.5</v>
+      </c>
+      <c r="X16">
+        <v>0.5</v>
+      </c>
+      <c r="Y16">
+        <v>0.5</v>
+      </c>
+      <c r="Z16">
+        <v>6.4109999999999996</v>
+      </c>
+      <c r="AA16">
+        <v>6.6603925559999997</v>
+      </c>
+      <c r="AB16">
+        <v>3.06</v>
+      </c>
+      <c r="AC16">
+        <v>1.7729467000000001</v>
+      </c>
+      <c r="AD16">
+        <v>2.73</v>
+      </c>
+      <c r="AE16">
+        <v>1.9142518120000001</v>
+      </c>
+      <c r="AF16">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="AG16">
+        <v>3.953280157</v>
+      </c>
+      <c r="AH16">
+        <v>86.426000000000002</v>
+      </c>
+      <c r="AI16">
+        <v>11.173369409999999</v>
+      </c>
+      <c r="AJ16">
+        <v>7.8</v>
+      </c>
+      <c r="AK16">
+        <v>9.293008124</v>
+      </c>
+      <c r="AL16">
+        <v>0.2</v>
+      </c>
+      <c r="AM16">
+        <v>0.6</v>
+      </c>
+      <c r="AN16">
+        <v>7.6</v>
+      </c>
+      <c r="AO16">
+        <v>9.3722996110000008</v>
+      </c>
+      <c r="AP16">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="AQ16">
+        <v>5.6577381000000003E-2</v>
+      </c>
+      <c r="AR16">
+        <v>917607.6</v>
+      </c>
+      <c r="AS16">
+        <v>1643.6441950000001</v>
+      </c>
+      <c r="AT16">
+        <v>0.8</v>
+      </c>
+      <c r="AU16">
+        <v>0.74833147700000002</v>
+      </c>
+      <c r="AV16">
+        <v>1538.4</v>
+      </c>
+      <c r="AW16">
+        <v>233.67935299999999</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>9.8164000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>7340</v>
+      </c>
+      <c r="D17">
+        <v>492</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>7844</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>760</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>16436</v>
+      </c>
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <v>152.80550909999999</v>
+      </c>
+      <c r="U17">
+        <v>167434.08989999999</v>
+      </c>
+      <c r="V17">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="W17">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="X17">
+        <v>0.92382574799999995</v>
+      </c>
+      <c r="Y17">
+        <v>7.6174251999999998E-2</v>
+      </c>
+      <c r="Z17">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="AA17">
+        <v>5.056110758</v>
+      </c>
+      <c r="AB17">
+        <v>2.36</v>
+      </c>
+      <c r="AC17">
+        <v>1.764913596</v>
+      </c>
+      <c r="AD17">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="AE17">
+        <v>1.4540567390000001</v>
+      </c>
+      <c r="AF17">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AG17">
+        <v>0.101098961</v>
+      </c>
+      <c r="AH17">
+        <v>90.497</v>
+      </c>
+      <c r="AI17">
+        <v>7.5169901560000003</v>
+      </c>
+      <c r="AJ17">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AK17">
+        <v>7.657675888</v>
+      </c>
+      <c r="AL17">
+        <v>6.2</v>
+      </c>
+      <c r="AM17">
+        <v>7.453858061</v>
+      </c>
+      <c r="AN17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AO17">
+        <v>1.7204650530000001</v>
+      </c>
+      <c r="AP17">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="AQ17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AR17">
+        <v>919162</v>
+      </c>
+      <c r="AS17">
+        <v>2686.3145009999998</v>
+      </c>
+      <c r="AT17">
+        <v>8.5</v>
+      </c>
+      <c r="AU17">
+        <v>5.4267854199999999</v>
+      </c>
+      <c r="AV17">
+        <v>1627.3</v>
+      </c>
+      <c r="AW17">
+        <v>329.30929229999998</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>2.6050000000000001E-3</v>
+      </c>
+      <c r="C18">
+        <v>608</v>
+      </c>
+      <c r="D18">
+        <v>313</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>928</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>581</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>2430</v>
+      </c>
+      <c r="S18">
+        <v>11</v>
+      </c>
+      <c r="T18">
+        <v>4222.6487520000001</v>
+      </c>
+      <c r="U18">
+        <v>932821.49710000004</v>
+      </c>
+      <c r="V18">
+        <v>0.54545454500000001</v>
+      </c>
+      <c r="W18">
+        <v>0.45454545499999999</v>
+      </c>
+      <c r="X18">
+        <v>0.63209876499999995</v>
+      </c>
+      <c r="Y18">
+        <v>0.36790123499999999</v>
+      </c>
+      <c r="Z18">
+        <v>7.0270000000000001</v>
+      </c>
+      <c r="AA18">
+        <v>5.3804089990000001</v>
+      </c>
+      <c r="AB18">
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="AC18">
+        <v>1.0101564240000001</v>
+      </c>
+      <c r="AD18">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="AE18">
+        <v>1.6113336089999999</v>
+      </c>
+      <c r="AF18">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AG18">
+        <v>0.13484806299999999</v>
+      </c>
+      <c r="AH18">
+        <v>87.018000000000001</v>
+      </c>
+      <c r="AI18">
+        <v>7.4185292340000002</v>
+      </c>
+      <c r="AJ18">
+        <v>11.6</v>
+      </c>
+      <c r="AK18">
+        <v>9.1126286000000007</v>
+      </c>
+      <c r="AL18">
+        <v>7.9</v>
+      </c>
+      <c r="AM18">
+        <v>7.8670197660000003</v>
+      </c>
+      <c r="AN18">
+        <v>3.7</v>
+      </c>
+      <c r="AO18">
+        <v>1.791647287</v>
+      </c>
+      <c r="AP18">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AQ18">
+        <v>2.6851442999999999E-2</v>
+      </c>
+      <c r="AR18">
+        <v>919167.2</v>
+      </c>
+      <c r="AS18">
+        <v>1864.385196</v>
+      </c>
+      <c r="AT18">
+        <v>1.2</v>
+      </c>
+      <c r="AU18">
+        <v>1.8330302780000001</v>
+      </c>
+      <c r="AV18">
+        <v>1434.3</v>
+      </c>
+      <c r="AW18">
+        <v>233.38254000000001</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5683</v>
+      </c>
+      <c r="B19">
+        <v>52.060611999999999</v>
+      </c>
+      <c r="C19">
+        <v>1124</v>
+      </c>
+      <c r="D19">
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1180</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>2476</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>5.7625138999999999E-2</v>
+      </c>
+      <c r="U19">
+        <v>47.559948009999999</v>
+      </c>
+      <c r="V19">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="W19">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="X19">
+        <v>0.93053311800000005</v>
+      </c>
+      <c r="Y19">
+        <v>6.9466881999999994E-2</v>
+      </c>
+      <c r="Z19">
+        <v>32.673000000000002</v>
+      </c>
+      <c r="AA19">
+        <v>7.1680737299999997</v>
+      </c>
+      <c r="AB19">
+        <v>3.1</v>
+      </c>
+      <c r="AC19">
+        <v>1.250095996</v>
+      </c>
+      <c r="AD19">
+        <v>13.099</v>
+      </c>
+      <c r="AE19">
+        <v>2.4002351970000002</v>
+      </c>
+      <c r="AF19">
+        <v>0.129</v>
+      </c>
+      <c r="AG19">
+        <v>0.129108482</v>
+      </c>
+      <c r="AH19">
+        <v>50.997999999999998</v>
+      </c>
+      <c r="AI19">
+        <v>9.3655942680000006</v>
+      </c>
+      <c r="AJ19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AK19">
+        <v>5.0487622249999999</v>
+      </c>
+      <c r="AL19">
+        <v>2.1</v>
+      </c>
+      <c r="AM19">
+        <v>5.0487622249999999</v>
+      </c>
+      <c r="AN19">
+        <v>3</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>1.915</v>
+      </c>
+      <c r="AQ19">
+        <v>4.2720018999999998E-2</v>
+      </c>
+      <c r="AR19">
+        <v>918474</v>
+      </c>
+      <c r="AS19">
+        <v>3331.935293</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>15954.2</v>
+      </c>
+      <c r="AW19">
+        <v>1558.5619529999999</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>1</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2035</v>
+      </c>
+      <c r="B20">
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>44</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>40</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>84</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>6410.25641</v>
+      </c>
+      <c r="U20">
+        <v>269230.76919999998</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+      <c r="X20">
+        <v>0.52380952400000003</v>
+      </c>
+      <c r="Y20">
+        <v>0.47619047599999997</v>
+      </c>
+      <c r="Z20">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="AA20">
+        <v>0.51703384799999996</v>
+      </c>
+      <c r="AB20">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="AC20">
+        <v>0.359032032</v>
+      </c>
+      <c r="AD20">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="AE20">
+        <v>0.79689648000000002</v>
+      </c>
+      <c r="AF20">
+        <v>1.613</v>
+      </c>
+      <c r="AG20">
+        <v>3.0011032969999998</v>
+      </c>
+      <c r="AH20">
+        <v>95.222999999999999</v>
+      </c>
+      <c r="AI20">
+        <v>3.7251122130000001</v>
+      </c>
+      <c r="AJ20">
+        <v>10.8</v>
+      </c>
+      <c r="AK20">
+        <v>4.8744230430000002</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>10.8</v>
+      </c>
+      <c r="AO20">
+        <v>4.8744230430000002</v>
+      </c>
+      <c r="AP20">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AQ20">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AR20">
+        <v>914781.6</v>
+      </c>
+      <c r="AS20">
+        <v>229.84655749999999</v>
+      </c>
+      <c r="AT20">
+        <v>0.8</v>
+      </c>
+      <c r="AU20">
+        <v>0.4</v>
+      </c>
+      <c r="AV20">
+        <v>1125.2</v>
+      </c>
+      <c r="AW20">
+        <v>92.283042859999995</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C21">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>65</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>65</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>204</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>40000</v>
+      </c>
+      <c r="U21">
+        <v>4080000</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="AA21">
+        <v>1.9636112139999999</v>
+      </c>
+      <c r="AB21">
+        <v>1.361</v>
+      </c>
+      <c r="AC21">
+        <v>0.864493493</v>
+      </c>
+      <c r="AD21">
+        <v>1.64</v>
+      </c>
+      <c r="AE21">
+        <v>0.62048368200000004</v>
+      </c>
+      <c r="AF21">
+        <v>2.2789999999999999</v>
+      </c>
+      <c r="AG21">
+        <v>4.2194560079999999</v>
+      </c>
+      <c r="AH21">
+        <v>92.483000000000004</v>
+      </c>
+      <c r="AI21">
+        <v>5.0769913329999996</v>
+      </c>
+      <c r="AJ21">
+        <v>23.1</v>
+      </c>
+      <c r="AK21">
+        <v>12.04533105</v>
+      </c>
+      <c r="AL21">
+        <v>9.6</v>
+      </c>
+      <c r="AM21">
+        <v>10.011992810000001</v>
+      </c>
+      <c r="AN21">
+        <v>13.5</v>
+      </c>
+      <c r="AO21">
+        <v>10.67941946</v>
+      </c>
+      <c r="AP21">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="AQ21">
+        <v>2.6153394E-2</v>
+      </c>
+      <c r="AR21">
+        <v>914255.2</v>
+      </c>
+      <c r="AS21">
+        <v>3023.0838819999999</v>
+      </c>
+      <c r="AT21">
+        <v>0.8</v>
+      </c>
+      <c r="AU21">
+        <v>0.4</v>
+      </c>
+      <c r="AV21">
+        <v>1321.4</v>
+      </c>
+      <c r="AW21">
+        <v>309.58333290000002</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5683</v>
+      </c>
+      <c r="B22">
+        <v>101.6871</v>
+      </c>
+      <c r="C22">
+        <v>1686</v>
+      </c>
+      <c r="D22">
+        <v>72</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>1770</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>3628</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>3.9336356000000003E-2</v>
+      </c>
+      <c r="U22">
+        <v>35.678075190000001</v>
+      </c>
+      <c r="V22">
+        <v>0.75</v>
+      </c>
+      <c r="W22">
+        <v>0.25</v>
+      </c>
+      <c r="X22">
+        <v>0.95259095900000001</v>
+      </c>
+      <c r="Y22">
+        <v>4.7409040999999999E-2</v>
+      </c>
+      <c r="Z22">
+        <v>27.597999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>5.8234573919999999</v>
+      </c>
+      <c r="AB22">
+        <v>2.02</v>
+      </c>
+      <c r="AC22">
+        <v>1.5679668360000001</v>
+      </c>
+      <c r="AD22">
+        <v>12.618</v>
+      </c>
+      <c r="AE22">
+        <v>1.568182387</v>
+      </c>
+      <c r="AF22">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="AG22">
+        <v>1.4398486029999999</v>
+      </c>
+      <c r="AH22">
+        <v>56.813000000000002</v>
+      </c>
+      <c r="AI22">
+        <v>7.4867029460000003</v>
+      </c>
+      <c r="AJ22">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AK22">
+        <v>10.83558951</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AO22">
+        <v>10.83558951</v>
+      </c>
+      <c r="AP22">
+        <v>1.625</v>
+      </c>
+      <c r="AQ22">
+        <v>3.2015621000000001E-2</v>
+      </c>
+      <c r="AR22">
+        <v>920672.4</v>
+      </c>
+      <c r="AS22">
+        <v>2181.8300210000002</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>15442.6</v>
+      </c>
+      <c r="AW22">
+        <v>935.3893521</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C23">
+        <v>108</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>164</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>272</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>333333.3333</v>
+      </c>
+      <c r="U23">
+        <v>45333333.329999998</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>8.9949999999999992</v>
+      </c>
+      <c r="AA23">
+        <v>10.590762249999999</v>
+      </c>
+      <c r="AB23">
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="AC23">
+        <v>1.630866028</v>
+      </c>
+      <c r="AD23">
+        <v>2.629</v>
+      </c>
+      <c r="AE23">
+        <v>0.84090962700000005</v>
+      </c>
+      <c r="AF23">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AG23">
+        <v>0.17759786</v>
+      </c>
+      <c r="AH23">
+        <v>85.545000000000002</v>
+      </c>
+      <c r="AI23">
+        <v>12.6349169</v>
+      </c>
+      <c r="AJ23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AK23">
+        <v>1.7776388830000001</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AO23">
+        <v>1.7776388830000001</v>
+      </c>
+      <c r="AP23">
+        <v>0.88</v>
+      </c>
+      <c r="AQ23">
+        <v>0.05</v>
+      </c>
+      <c r="AR23">
+        <v>911076.8</v>
+      </c>
+      <c r="AS23">
+        <v>3330.5359570000001</v>
+      </c>
+      <c r="AT23">
+        <v>1.2</v>
+      </c>
+      <c r="AU23">
+        <v>0.97979589700000003</v>
+      </c>
+      <c r="AV23">
+        <v>1371.8</v>
+      </c>
+      <c r="AW23">
+        <v>154.41878120000001</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1038</v>
+      </c>
+      <c r="B24">
+        <v>7.4299999999999995E-4</v>
+      </c>
+      <c r="C24">
+        <v>2063.5891969999998</v>
+      </c>
+      <c r="D24">
+        <v>56317.681089999998</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>25.37475813</v>
+      </c>
+      <c r="N24">
+        <v>3143.8112540000002</v>
+      </c>
+      <c r="O24">
+        <v>35.595914139999998</v>
+      </c>
+      <c r="P24">
+        <v>53377.0864</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>121604.9936</v>
+      </c>
+      <c r="S24">
+        <v>60.970672280000002</v>
+      </c>
+      <c r="T24">
+        <v>30434.794689999999</v>
+      </c>
+      <c r="U24">
+        <v>3258413.0269999998</v>
+      </c>
+      <c r="V24">
+        <v>0.64432566199999997</v>
+      </c>
+      <c r="W24">
+        <v>0.35567433799999998</v>
+      </c>
+      <c r="X24">
+        <v>0.57228641700000005</v>
+      </c>
+      <c r="Y24">
+        <v>0.42771358300000001</v>
+      </c>
+      <c r="Z24">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AA24">
+        <v>3.7264674960000002</v>
+      </c>
+      <c r="AB24">
+        <v>1.131</v>
+      </c>
+      <c r="AC24">
+        <v>0.97376023700000003</v>
+      </c>
+      <c r="AD24">
+        <v>2.5379999999999998</v>
+      </c>
+      <c r="AE24">
+        <v>1.96440729</v>
+      </c>
+      <c r="AF24">
+        <v>1.72</v>
+      </c>
+      <c r="AG24">
+        <v>4.1549199750000003</v>
+      </c>
+      <c r="AH24">
+        <v>92.566000000000003</v>
+      </c>
+      <c r="AI24">
+        <v>7.4855917600000001</v>
+      </c>
+      <c r="AJ24">
+        <v>22.5</v>
+      </c>
+      <c r="AK24">
+        <v>14.50689491</v>
+      </c>
+      <c r="AL24">
+        <v>7.6</v>
+      </c>
+      <c r="AM24">
+        <v>7.405403433</v>
+      </c>
+      <c r="AN24">
+        <v>14.9</v>
+      </c>
+      <c r="AO24">
+        <v>14.152384959999999</v>
+      </c>
+      <c r="AP24">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AQ24">
+        <v>6.4031239999999996E-3</v>
+      </c>
+      <c r="AR24">
+        <v>912495.2</v>
+      </c>
+      <c r="AS24">
+        <v>3393.0407839999998</v>
+      </c>
+      <c r="AT24">
+        <v>1.3</v>
+      </c>
+      <c r="AU24">
+        <v>0.9</v>
+      </c>
+      <c r="AV24">
+        <v>1230.7</v>
+      </c>
+      <c r="AW24">
+        <v>168.1249833</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5683</v>
+      </c>
+      <c r="B25">
+        <v>27.755877999999999</v>
+      </c>
+      <c r="C25">
+        <v>1686</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>1770</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3456</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>0.108085214</v>
+      </c>
+      <c r="U25">
+        <v>124.514166</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>29.535</v>
+      </c>
+      <c r="AA25">
+        <v>7.6556400780000002</v>
+      </c>
+      <c r="AB25">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="AC25">
+        <v>1.7711679760000001</v>
+      </c>
+      <c r="AD25">
+        <v>10.923999999999999</v>
+      </c>
+      <c r="AE25">
+        <v>2.949475208</v>
+      </c>
+      <c r="AF25">
+        <v>8.3130000000000006</v>
+      </c>
+      <c r="AG25">
+        <v>14.183891600000001</v>
+      </c>
+      <c r="AH25">
+        <v>48.594999999999999</v>
+      </c>
+      <c r="AI25">
+        <v>13.24349595</v>
+      </c>
+      <c r="AJ25">
+        <v>29.8</v>
+      </c>
+      <c r="AK25">
+        <v>17.06341115</v>
+      </c>
+      <c r="AL25">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AM25">
+        <v>7.2910904529999998</v>
+      </c>
+      <c r="AN25">
+        <v>21.6</v>
+      </c>
+      <c r="AO25">
+        <v>15.114231699999999</v>
+      </c>
+      <c r="AP25">
+        <v>1.32</v>
+      </c>
+      <c r="AQ25">
+        <v>0.24738633800000001</v>
+      </c>
+      <c r="AR25">
+        <v>919760.4</v>
+      </c>
+      <c r="AS25">
+        <v>2446.6090490000001</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>16096.5</v>
+      </c>
+      <c r="AW25">
+        <v>1825.0640129999999</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>1</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7435</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>44</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>40</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>84</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>41666.666669999999</v>
+      </c>
+      <c r="U26">
+        <v>1750000</v>
+      </c>
+      <c r="V26">
+        <v>0.5</v>
+      </c>
+      <c r="W26">
+        <v>0.5</v>
+      </c>
+      <c r="X26">
+        <v>0.52380952400000003</v>
+      </c>
+      <c r="Y26">
+        <v>0.47619047599999997</v>
+      </c>
+      <c r="Z26">
+        <v>3.355</v>
+      </c>
+      <c r="AA26">
+        <v>3.4430255590000001</v>
+      </c>
+      <c r="AB26">
+        <v>2.1190000000000002</v>
+      </c>
+      <c r="AC26">
+        <v>1.020543483</v>
+      </c>
+      <c r="AD26">
+        <v>1.911</v>
+      </c>
+      <c r="AE26">
+        <v>0.73001986299999999</v>
+      </c>
+      <c r="AF26">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="AG26">
+        <v>5.1512856649999996</v>
+      </c>
+      <c r="AH26">
+        <v>89.76</v>
+      </c>
+      <c r="AI26">
+        <v>8.8685297540000008</v>
+      </c>
+      <c r="AJ26">
+        <v>14.5</v>
+      </c>
+      <c r="AK26">
+        <v>16.014056329999999</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>14.5</v>
+      </c>
+      <c r="AO26">
+        <v>16.014056329999999</v>
+      </c>
+      <c r="AP26">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AQ26">
+        <v>6.1514225999999998E-2</v>
+      </c>
+      <c r="AR26">
+        <v>912968</v>
+      </c>
+      <c r="AS26">
+        <v>2164.914409</v>
+      </c>
+      <c r="AT26">
+        <v>0.9</v>
+      </c>
+      <c r="AU26">
+        <v>0.53851648100000005</v>
+      </c>
+      <c r="AV26">
+        <v>1478.9</v>
+      </c>
+      <c r="AW26">
+        <v>365.70355480000001</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>9.3894000000000005E-2</v>
+      </c>
+      <c r="C27">
+        <v>7340</v>
+      </c>
+      <c r="D27">
+        <v>492</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>7884</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>760</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>16476</v>
+      </c>
+      <c r="S27">
+        <v>16</v>
+      </c>
+      <c r="T27">
+        <v>170.40492470000001</v>
+      </c>
+      <c r="U27">
+        <v>175474.4712</v>
+      </c>
+      <c r="V27">
+        <v>0.6875</v>
+      </c>
+      <c r="W27">
+        <v>0.3125</v>
+      </c>
+      <c r="X27">
+        <v>0.92401068200000003</v>
+      </c>
+      <c r="Y27">
+        <v>7.5989318E-2</v>
+      </c>
+      <c r="Z27">
+        <v>4.5270000000000001</v>
+      </c>
+      <c r="AA27">
+        <v>4.0320889129999999</v>
+      </c>
+      <c r="AB27">
+        <v>1.587</v>
+      </c>
+      <c r="AC27">
+        <v>1.0478077109999999</v>
+      </c>
+      <c r="AD27">
+        <v>3.573</v>
+      </c>
+      <c r="AE27">
+        <v>1.768451583</v>
+      </c>
+      <c r="AF27">
+        <v>8.0519999999999996</v>
+      </c>
+      <c r="AG27">
+        <v>14.787219350000001</v>
+      </c>
+      <c r="AH27">
+        <v>82.265000000000001</v>
+      </c>
+      <c r="AI27">
+        <v>14.742916429999999</v>
+      </c>
+      <c r="AJ27">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AK27">
+        <v>13.27554142</v>
+      </c>
+      <c r="AL27">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AM27">
+        <v>10.024470060000001</v>
+      </c>
+      <c r="AN27">
+        <v>14.5</v>
+      </c>
+      <c r="AO27">
+        <v>11.315917990000001</v>
+      </c>
+      <c r="AP27">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AQ27">
+        <v>6.4031239999999996E-3</v>
+      </c>
+      <c r="AR27">
+        <v>738846.4</v>
+      </c>
+      <c r="AS27">
+        <v>1154.1150029999999</v>
+      </c>
+      <c r="AT27">
+        <v>10.9</v>
+      </c>
+      <c r="AU27">
+        <v>5.99082632</v>
+      </c>
+      <c r="AV27">
+        <v>1449.9</v>
+      </c>
+      <c r="AW27">
+        <v>123.3632441</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>1</v>
+      </c>
+      <c r="BA27">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
+      <c r="BC27">
+        <v>1</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>1</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>80</v>
+      </c>
+      <c r="B28">
+        <v>3.0850000000000001E-3</v>
+      </c>
+      <c r="C28">
+        <v>608</v>
+      </c>
+      <c r="D28">
+        <v>313</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>928</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>581</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>2430</v>
+      </c>
+      <c r="S28">
+        <v>11</v>
+      </c>
+      <c r="T28">
+        <v>3565.6401940000001</v>
+      </c>
+      <c r="U28">
+        <v>787682.33389999997</v>
+      </c>
+      <c r="V28">
+        <v>0.54545454500000001</v>
+      </c>
+      <c r="W28">
+        <v>0.45454545499999999</v>
+      </c>
+      <c r="X28">
+        <v>0.63209876499999995</v>
+      </c>
+      <c r="Y28">
+        <v>0.36790123499999999</v>
+      </c>
+      <c r="Z28">
+        <v>5.5720000000000001</v>
+      </c>
+      <c r="AA28">
+        <v>7.4559517169999996</v>
+      </c>
+      <c r="AB28">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="AC28">
+        <v>2.3355815120000001</v>
+      </c>
+      <c r="AD28">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="AE28">
+        <v>1.5240029530000001</v>
+      </c>
+      <c r="AF28">
+        <v>4.4969999999999999</v>
+      </c>
+      <c r="AG28">
+        <v>10.52538745</v>
+      </c>
+      <c r="AH28">
+        <v>82.671000000000006</v>
+      </c>
+      <c r="AI28">
+        <v>11.19902982</v>
+      </c>
+      <c r="AJ28">
+        <v>5.9</v>
+      </c>
+      <c r="AK28">
+        <v>3.6455452269999999</v>
+      </c>
+      <c r="AL28">
+        <v>1.2</v>
+      </c>
+      <c r="AM28">
+        <v>1.9899748740000001</v>
+      </c>
+      <c r="AN28">
+        <v>4.7</v>
+      </c>
+      <c r="AO28">
+        <v>3.4655446900000002</v>
+      </c>
+      <c r="AP28">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AQ28">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AR28">
+        <v>902396</v>
+      </c>
+      <c r="AS28">
+        <v>4938.4852739999997</v>
+      </c>
+      <c r="AT28">
+        <v>1.4</v>
+      </c>
+      <c r="AU28">
+        <v>1.6248076810000001</v>
+      </c>
+      <c r="AV28">
+        <v>1467.1</v>
+      </c>
+      <c r="AW28">
+        <v>389.38398790000002</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>1</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>6.4279999999999997E-3</v>
+      </c>
+      <c r="C29">
+        <v>2063.5891969999998</v>
+      </c>
+      <c r="D29">
+        <v>56317.681089999998</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>25.37475813</v>
+      </c>
+      <c r="N29">
+        <v>3143.8112540000002</v>
+      </c>
+      <c r="O29">
+        <v>35.595914139999998</v>
+      </c>
+      <c r="P29">
+        <v>53377.0864</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>121604.9936</v>
+      </c>
+      <c r="S29">
+        <v>60.970672280000002</v>
+      </c>
+      <c r="T29">
+        <v>30434.794689999999</v>
+      </c>
+      <c r="U29">
+        <v>3258413.0269999998</v>
+      </c>
+      <c r="V29">
+        <v>0.64432566199999997</v>
+      </c>
+      <c r="W29">
+        <v>0.35567433799999998</v>
+      </c>
+      <c r="X29">
+        <v>0.57228641700000005</v>
+      </c>
+      <c r="Y29">
+        <v>0.42771358300000001</v>
+      </c>
+      <c r="Z29">
+        <v>11.683</v>
+      </c>
+      <c r="AA29">
+        <v>8.8773082070000005</v>
+      </c>
+      <c r="AB29">
+        <v>1.752</v>
+      </c>
+      <c r="AC29">
+        <v>1.5604601890000001</v>
+      </c>
+      <c r="AD29">
+        <v>3.556</v>
+      </c>
+      <c r="AE29">
+        <v>1.6983650960000001</v>
+      </c>
+      <c r="AF29">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AG29">
+        <v>0.42666731800000002</v>
+      </c>
+      <c r="AH29">
+        <v>82.656999999999996</v>
+      </c>
+      <c r="AI29">
+        <v>10.61548779</v>
+      </c>
+      <c r="AJ29">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AK29">
+        <v>16.0137441</v>
+      </c>
+      <c r="AL29">
+        <v>13.2</v>
+      </c>
+      <c r="AM29">
+        <v>15.542200619999999</v>
+      </c>
+      <c r="AN29">
+        <v>3.4</v>
+      </c>
+      <c r="AO29">
+        <v>0.91651513900000003</v>
+      </c>
+      <c r="AP29">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="AQ29">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AR29">
+        <v>911382</v>
+      </c>
+      <c r="AS29">
+        <v>1992.8987930000001</v>
+      </c>
+      <c r="AT29">
+        <v>1.6</v>
+      </c>
+      <c r="AU29">
+        <v>1.0198039029999999</v>
+      </c>
+      <c r="AV29">
+        <v>1619.5</v>
+      </c>
+      <c r="AW29">
+        <v>323.22878889999998</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>1</v>
+      </c>
+      <c r="BA29">
+        <v>1</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>1</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>1</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C30">
+        <v>156</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>268</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>424</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <v>1000000</v>
+      </c>
+      <c r="U30">
+        <v>106000000</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>15.205</v>
+      </c>
+      <c r="AA30">
+        <v>4.1060132730000003</v>
+      </c>
+      <c r="AB30">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="AC30">
+        <v>1.1654887389999999</v>
+      </c>
+      <c r="AD30">
+        <v>41.149000000000001</v>
+      </c>
+      <c r="AE30">
+        <v>1.646143675</v>
+      </c>
+      <c r="AF30">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="AG30">
+        <v>2.8326567040000001</v>
+      </c>
+      <c r="AH30">
+        <v>40.677999999999997</v>
+      </c>
+      <c r="AI30">
+        <v>5.5584130829999996</v>
+      </c>
+      <c r="AJ30">
+        <v>3.3</v>
+      </c>
+      <c r="AK30">
+        <v>0.9</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>3.3</v>
+      </c>
+      <c r="AO30">
+        <v>0.9</v>
+      </c>
+      <c r="AP30">
+        <v>2.625</v>
+      </c>
+      <c r="AQ30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AR30">
+        <v>912315.6</v>
+      </c>
+      <c r="AS30">
+        <v>4192.6554640000004</v>
+      </c>
+      <c r="AT30">
+        <v>1</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>1338</v>
+      </c>
+      <c r="AW30">
+        <v>244.79379080000001</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>69</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>69</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>220</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>7575.757576</v>
+      </c>
+      <c r="U31">
+        <v>833333.33330000006</v>
+      </c>
+      <c r="V31">
+        <v>0.5</v>
+      </c>
+      <c r="W31">
+        <v>0.5</v>
+      </c>
+      <c r="X31">
+        <v>0.5</v>
+      </c>
+      <c r="Y31">
+        <v>0.5</v>
+      </c>
+      <c r="Z31">
+        <v>7.173</v>
+      </c>
+      <c r="AA31">
+        <v>4.7973097669999998</v>
+      </c>
+      <c r="AB31">
+        <v>1.98</v>
+      </c>
+      <c r="AC31">
+        <v>0.943196692</v>
+      </c>
+      <c r="AD31">
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="AE31">
+        <v>1.479102769</v>
+      </c>
+      <c r="AF31">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AG31">
+        <v>0.50680962900000004</v>
+      </c>
+      <c r="AH31">
+        <v>87.094999999999999</v>
+      </c>
+      <c r="AI31">
+        <v>7.1068590110000001</v>
+      </c>
+      <c r="AJ31">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AK31">
+        <v>10.173003489999999</v>
+      </c>
+      <c r="AL31">
+        <v>8.5</v>
+      </c>
+      <c r="AM31">
+        <v>9.7288231560000007</v>
+      </c>
+      <c r="AN31">
+        <v>9.6</v>
+      </c>
+      <c r="AO31">
+        <v>1.6248076810000001</v>
+      </c>
+      <c r="AP31">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="AQ31">
+        <v>0.138260623</v>
+      </c>
+      <c r="AR31">
+        <v>916937.6</v>
+      </c>
+      <c r="AS31">
+        <v>3290.9019800000001</v>
+      </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>1732</v>
+      </c>
+      <c r="AW31">
+        <v>431.15032179999997</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C32">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>130</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>204</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>250000</v>
+      </c>
+      <c r="U32">
+        <v>25500000</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>3.6139999999999999</v>
+      </c>
+      <c r="AA32">
+        <v>5.0011902580000003</v>
+      </c>
+      <c r="AB32">
+        <v>2.177</v>
+      </c>
+      <c r="AC32">
+        <v>0.95982342099999995</v>
+      </c>
+      <c r="AD32">
+        <v>2.3079999999999998</v>
+      </c>
+      <c r="AE32">
+        <v>1.261806641</v>
+      </c>
+      <c r="AF32">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="AG32">
+        <v>4.354595389</v>
+      </c>
+      <c r="AH32">
+        <v>89.335999999999999</v>
+      </c>
+      <c r="AI32">
+        <v>9.6609960150000003</v>
+      </c>
+      <c r="AJ32">
+        <v>15.1</v>
+      </c>
+      <c r="AK32">
+        <v>7.0632853549999997</v>
+      </c>
+      <c r="AL32">
+        <v>5.7</v>
+      </c>
+      <c r="AM32">
+        <v>7.1561162649999996</v>
+      </c>
+      <c r="AN32">
+        <v>9.4</v>
+      </c>
+      <c r="AO32">
+        <v>0.91651513900000003</v>
+      </c>
+      <c r="AP32">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="AQ32">
+        <v>5.4074022999999999E-2</v>
+      </c>
+      <c r="AR32">
+        <v>911331.2</v>
+      </c>
+      <c r="AS32">
+        <v>590.94446440000002</v>
+      </c>
+      <c r="AT32">
+        <v>1</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>1372.7</v>
+      </c>
+      <c r="AW32">
+        <v>221.8418581</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>9.6409491379999999</v>
+      </c>
+      <c r="C33">
+        <v>2063.5891969999998</v>
+      </c>
+      <c r="D33">
+        <v>56317.681089999998</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>25.37475813</v>
+      </c>
+      <c r="N33">
+        <v>3143.8112540000002</v>
+      </c>
+      <c r="O33">
+        <v>35.595914139999998</v>
+      </c>
+      <c r="P33">
+        <v>53377.0864</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>121604.9936</v>
+      </c>
+      <c r="S33">
+        <v>60.970672280000002</v>
+      </c>
+      <c r="T33">
+        <v>30434.794689999999</v>
+      </c>
+      <c r="U33">
+        <v>3258413.0269999998</v>
+      </c>
+      <c r="V33">
+        <v>0.64432566199999997</v>
+      </c>
+      <c r="W33">
+        <v>0.35567433799999998</v>
+      </c>
+      <c r="X33">
+        <v>0.57228641700000005</v>
+      </c>
+      <c r="Y33">
+        <v>0.42771358300000001</v>
+      </c>
+      <c r="Z33">
+        <v>3.3780000000000001</v>
+      </c>
+      <c r="AA33">
+        <v>5.6230859850000003</v>
+      </c>
+      <c r="AB33">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="AC33">
+        <v>0.961001561</v>
+      </c>
+      <c r="AD33">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="AE33">
+        <v>1.3746654140000001</v>
+      </c>
+      <c r="AF33">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AG33">
+        <v>0.16977632300000001</v>
+      </c>
+      <c r="AH33">
+        <v>92.438000000000002</v>
+      </c>
+      <c r="AI33">
+        <v>7.555481189</v>
+      </c>
+      <c r="AJ33">
+        <v>12.7</v>
+      </c>
+      <c r="AK33">
+        <v>5.2354560450000003</v>
+      </c>
+      <c r="AL33">
+        <v>3.3</v>
+      </c>
+      <c r="AM33">
+        <v>4.980963762</v>
+      </c>
+      <c r="AN33">
+        <v>9.4</v>
+      </c>
+      <c r="AO33">
+        <v>1.2806248469999999</v>
+      </c>
+      <c r="AP33">
+        <v>0.877</v>
+      </c>
+      <c r="AQ33">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AR33">
+        <v>912292.4</v>
+      </c>
+      <c r="AS33">
+        <v>3032.99638</v>
+      </c>
+      <c r="AT33">
+        <v>0.8</v>
+      </c>
+      <c r="AU33">
+        <v>0.4</v>
+      </c>
+      <c r="AV33">
+        <v>1223</v>
+      </c>
+      <c r="AW33">
+        <v>147.01020370000001</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>80</v>
+      </c>
+      <c r="B34">
+        <v>9.6674999999999997E-2</v>
+      </c>
+      <c r="C34">
+        <v>7340</v>
+      </c>
+      <c r="D34">
+        <v>492</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>7844</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>760</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>16436</v>
+      </c>
+      <c r="S34">
+        <v>15</v>
+      </c>
+      <c r="T34">
+        <v>155.15903800000001</v>
+      </c>
+      <c r="U34">
+        <v>170012.92989999999</v>
+      </c>
+      <c r="V34">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="W34">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="X34">
+        <v>0.92382574799999995</v>
+      </c>
+      <c r="Y34">
+        <v>7.6174251999999998E-2</v>
+      </c>
+      <c r="Z34">
+        <v>3.423</v>
+      </c>
+      <c r="AA34">
+        <v>4.2562801830000003</v>
+      </c>
+      <c r="AB34">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="AC34">
+        <v>0.71161506399999996</v>
+      </c>
+      <c r="AD34">
+        <v>2.6070000000000002</v>
+      </c>
+      <c r="AE34">
+        <v>1.7049577709999999</v>
+      </c>
+      <c r="AF34">
+        <v>0.33</v>
+      </c>
+      <c r="AG34">
+        <v>0.164012195</v>
+      </c>
+      <c r="AH34">
+        <v>92.224000000000004</v>
+      </c>
+      <c r="AI34">
+        <v>6.2417116239999997</v>
+      </c>
+      <c r="AJ34">
+        <v>10</v>
+      </c>
+      <c r="AK34">
+        <v>1.549193338</v>
+      </c>
+      <c r="AL34">
+        <v>0.1</v>
+      </c>
+      <c r="AM34">
+        <v>0.3</v>
+      </c>
+      <c r="AN34">
+        <v>9.9</v>
+      </c>
+      <c r="AO34">
+        <v>1.3747727080000001</v>
+      </c>
+      <c r="AP34">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="AQ34">
+        <v>3.8418744999999997E-2</v>
+      </c>
+      <c r="AR34">
+        <v>919597.6</v>
+      </c>
+      <c r="AS34">
+        <v>543.9888234</v>
+      </c>
+      <c r="AT34">
+        <v>7.2</v>
+      </c>
+      <c r="AU34">
+        <v>5.2877216269999998</v>
+      </c>
+      <c r="AV34">
+        <v>1358.8</v>
+      </c>
+      <c r="AW34">
+        <v>217.6298693</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>1</v>
+      </c>
+      <c r="BA34">
+        <v>1</v>
+      </c>
+      <c r="BB34">
+        <v>1</v>
+      </c>
+      <c r="BC34">
+        <v>1</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5683</v>
+      </c>
+      <c r="B35">
+        <v>9.6409491379999999</v>
+      </c>
+      <c r="C35">
+        <v>2063.5891969999998</v>
+      </c>
+      <c r="D35">
+        <v>56317.681089999998</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>590</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>121604.9936</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>30434.794689999999</v>
+      </c>
+      <c r="U35">
+        <v>3258413.0269999998</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0.57228641700000005</v>
+      </c>
+      <c r="Y35">
+        <v>0.42771358300000001</v>
+      </c>
+      <c r="Z35">
+        <v>26.920999999999999</v>
+      </c>
+      <c r="AA35">
+        <v>4.2924805179999996</v>
+      </c>
+      <c r="AB35">
+        <v>2.214</v>
+      </c>
+      <c r="AC35">
+        <v>1.3667128449999999</v>
+      </c>
+      <c r="AD35">
+        <v>13.058</v>
+      </c>
+      <c r="AE35">
+        <v>2.4795233410000002</v>
+      </c>
+      <c r="AF35">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AG35">
+        <v>0.154016233</v>
+      </c>
+      <c r="AH35">
+        <v>57.600999999999999</v>
+      </c>
+      <c r="AI35">
+        <v>6.2429263170000002</v>
+      </c>
+      <c r="AJ35">
+        <v>9.1</v>
+      </c>
+      <c r="AK35">
+        <v>0.3</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>9.1</v>
+      </c>
+      <c r="AO35">
+        <v>0.3</v>
+      </c>
+      <c r="AP35">
+        <v>2.105</v>
+      </c>
+      <c r="AQ35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AR35">
+        <v>919595.2</v>
+      </c>
+      <c r="AS35">
+        <v>1257.855699</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>20621.900000000001</v>
+      </c>
+      <c r="AW35">
+        <v>5067.8932000000004</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6034</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>60</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>40</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>100</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>95238.095239999995</v>
+      </c>
+      <c r="U36">
+        <v>4761904.7620000001</v>
+      </c>
+      <c r="V36">
+        <v>0.5</v>
+      </c>
+      <c r="W36">
+        <v>0.5</v>
+      </c>
+      <c r="X36">
+        <v>0.6</v>
+      </c>
+      <c r="Y36">
+        <v>0.4</v>
+      </c>
+      <c r="Z36">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="AA36">
+        <v>2.6020962700000001</v>
+      </c>
+      <c r="AB36">
+        <v>1.621</v>
+      </c>
+      <c r="AC36">
+        <v>1.1728550639999999</v>
+      </c>
+      <c r="AD36">
+        <v>2.198</v>
+      </c>
+      <c r="AE36">
+        <v>1.291656301</v>
+      </c>
+      <c r="AF36">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="AG36">
+        <v>0.49855892299999999</v>
+      </c>
+      <c r="AH36">
+        <v>92.796000000000006</v>
+      </c>
+      <c r="AI36">
+        <v>3.978452463</v>
+      </c>
+      <c r="AJ36">
+        <v>24.6</v>
+      </c>
+      <c r="AK36">
+        <v>15.86946754</v>
+      </c>
+      <c r="AL36">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AM36">
+        <v>9.3037626800000002</v>
+      </c>
+      <c r="AN36">
+        <v>15.4</v>
+      </c>
+      <c r="AO36">
+        <v>13.13925416</v>
+      </c>
+      <c r="AP36">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="AQ36">
+        <v>0.20672687300000001</v>
+      </c>
+      <c r="AR36">
+        <v>914420.4</v>
+      </c>
+      <c r="AS36">
+        <v>1816.448799</v>
+      </c>
+      <c r="AT36">
+        <v>1.099</v>
+      </c>
+      <c r="AU36">
+        <v>0.70014927000000005</v>
+      </c>
+      <c r="AV36">
+        <v>1307.8320000000001</v>
+      </c>
+      <c r="AW36">
+        <v>242.35928290000001</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>9.6409491379999999</v>
+      </c>
+      <c r="C37">
+        <v>2063.5891969999998</v>
+      </c>
+      <c r="D37">
+        <v>56317.681089999998</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>25.37475813</v>
+      </c>
+      <c r="N37">
+        <v>3143.8112540000002</v>
+      </c>
+      <c r="O37">
+        <v>35.595914139999998</v>
+      </c>
+      <c r="P37">
+        <v>53377.0864</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>121604.9936</v>
+      </c>
+      <c r="S37">
+        <v>60.970672280000002</v>
+      </c>
+      <c r="T37">
+        <v>30434.794689999999</v>
+      </c>
+      <c r="U37">
+        <v>3258413.0269999998</v>
+      </c>
+      <c r="V37">
+        <v>0.64432566199999997</v>
+      </c>
+      <c r="W37">
+        <v>0.35567433799999998</v>
+      </c>
+      <c r="X37">
+        <v>0.57228641700000005</v>
+      </c>
+      <c r="Y37">
+        <v>0.42771358300000001</v>
+      </c>
+      <c r="Z37">
+        <v>6.048</v>
+      </c>
+      <c r="AA37">
+        <v>7.1731398979999996</v>
+      </c>
+      <c r="AB37">
+        <v>3.36</v>
+      </c>
+      <c r="AC37">
+        <v>3.9034702509999999</v>
+      </c>
+      <c r="AD37">
+        <v>2.71</v>
+      </c>
+      <c r="AE37">
+        <v>1.4179633279999999</v>
+      </c>
+      <c r="AF37">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AG37">
+        <v>0.114564392</v>
+      </c>
+      <c r="AH37">
+        <v>87.808000000000007</v>
+      </c>
+      <c r="AI37">
+        <v>8.6455165259999998</v>
+      </c>
+      <c r="AJ37">
+        <v>9</v>
+      </c>
+      <c r="AK37">
+        <v>11.03630373</v>
+      </c>
+      <c r="AL37">
+        <v>4.2</v>
+      </c>
+      <c r="AM37">
+        <v>10.380751419999999</v>
+      </c>
+      <c r="AN37">
+        <v>4.8</v>
+      </c>
+      <c r="AO37">
+        <v>5.4</v>
+      </c>
+      <c r="AP37">
+        <v>0.9</v>
+      </c>
+      <c r="AQ37">
+        <v>5.2915025999999997E-2</v>
+      </c>
+      <c r="AR37">
+        <v>922689.6</v>
+      </c>
+      <c r="AS37">
+        <v>1547.2330919999999</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>1284.5999999999999</v>
+      </c>
+      <c r="AW37">
+        <v>177.91975719999999</v>
+      </c>
+      <c r="AX37">
+        <v>1</v>
+      </c>
+      <c r="AY37">
+        <v>5</v>
+      </c>
+      <c r="AZ37">
+        <v>1</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>1.6598999999999999E-2</v>
+      </c>
+      <c r="C38">
+        <v>2063.5891969999998</v>
+      </c>
+      <c r="D38">
+        <v>56317.681089999998</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>25.37475813</v>
+      </c>
+      <c r="N38">
+        <v>3143.8112540000002</v>
+      </c>
+      <c r="O38">
+        <v>35.595914139999998</v>
+      </c>
+      <c r="P38">
+        <v>53377.0864</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>121604.9936</v>
+      </c>
+      <c r="S38">
+        <v>60.970672280000002</v>
+      </c>
+      <c r="T38">
+        <v>30434.794689999999</v>
+      </c>
+      <c r="U38">
+        <v>3258413.0269999998</v>
+      </c>
+      <c r="V38">
+        <v>0.64432566199999997</v>
+      </c>
+      <c r="W38">
+        <v>0.35567433799999998</v>
+      </c>
+      <c r="X38">
+        <v>0.57228641700000005</v>
+      </c>
+      <c r="Y38">
+        <v>0.42771358300000001</v>
+      </c>
+      <c r="Z38">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="AA38">
+        <v>5.2338662569999999</v>
+      </c>
+      <c r="AB38">
+        <v>1.696</v>
+      </c>
+      <c r="AC38">
+        <v>0.95473766000000004</v>
+      </c>
+      <c r="AD38">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="AE38">
+        <v>0.81448449999999994</v>
+      </c>
+      <c r="AF38">
+        <v>0.254</v>
+      </c>
+      <c r="AG38">
+        <v>0.300039997</v>
+      </c>
+      <c r="AH38">
+        <v>91.138000000000005</v>
+      </c>
+      <c r="AI38">
+        <v>5.8982468580000003</v>
+      </c>
+      <c r="AJ38">
+        <v>22.7</v>
+      </c>
+      <c r="AK38">
+        <v>23.782556629999998</v>
+      </c>
+      <c r="AL38">
+        <v>13.6</v>
+      </c>
+      <c r="AM38">
+        <v>15.761979569999999</v>
+      </c>
+      <c r="AN38">
+        <v>9.1</v>
+      </c>
+      <c r="AO38">
+        <v>16.99087991</v>
+      </c>
+      <c r="AP38">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AQ38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AR38">
+        <v>914137.59999999998</v>
+      </c>
+      <c r="AS38">
+        <v>1413.9693910000001</v>
+      </c>
+      <c r="AT38">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>0.63245553200000004</v>
+      </c>
+      <c r="AV38">
+        <v>1641</v>
+      </c>
+      <c r="AW38">
+        <v>461.83438589999997</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1880</v>
+      </c>
+      <c r="B39">
+        <v>13.479165999999999</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>216</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>112</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>328</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <v>0.44513139800000001</v>
+      </c>
+      <c r="U39">
+        <v>24.333849740000002</v>
+      </c>
+      <c r="V39">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="W39">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="X39">
+        <v>0.65853658500000001</v>
+      </c>
+      <c r="Y39">
+        <v>0.34146341499999999</v>
+      </c>
+      <c r="Z39">
+        <v>10.484</v>
+      </c>
+      <c r="AA39">
+        <v>7.851700707</v>
+      </c>
+      <c r="AB39">
+        <v>1.5</v>
+      </c>
+      <c r="AC39">
+        <v>1.078137283</v>
+      </c>
+      <c r="AD39">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="AE39">
+        <v>0.97419915800000001</v>
+      </c>
+      <c r="AF39">
+        <v>4.3929999999999998</v>
+      </c>
+      <c r="AG39">
+        <v>5.5350646790000004</v>
+      </c>
+      <c r="AH39">
+        <v>81.727000000000004</v>
+      </c>
+      <c r="AI39">
+        <v>10.979153930000001</v>
+      </c>
+      <c r="AJ39">
+        <v>32.1</v>
+      </c>
+      <c r="AK39">
+        <v>36.244861700000001</v>
+      </c>
+      <c r="AL39">
+        <v>28.3</v>
+      </c>
+      <c r="AM39">
+        <v>36.818609430000002</v>
+      </c>
+      <c r="AN39">
+        <v>3.8</v>
+      </c>
+      <c r="AO39">
+        <v>1.661324773</v>
+      </c>
+      <c r="AP39">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="AQ39">
+        <v>2.2113344E-2</v>
+      </c>
+      <c r="AR39">
+        <v>918063.2</v>
+      </c>
+      <c r="AS39">
+        <v>2002.460726</v>
+      </c>
+      <c r="AT39">
+        <v>5.2</v>
+      </c>
+      <c r="AU39">
+        <v>3.867815921</v>
+      </c>
+      <c r="AV39">
+        <v>1450.2</v>
+      </c>
+      <c r="AW39">
+        <v>352.42440319999997</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1062</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>44</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>40</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>84</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>50000</v>
+      </c>
+      <c r="U40">
+        <v>2100000</v>
+      </c>
+      <c r="V40">
+        <v>0.5</v>
+      </c>
+      <c r="W40">
+        <v>0.5</v>
+      </c>
+      <c r="X40">
+        <v>0.52380952400000003</v>
+      </c>
+      <c r="Y40">
+        <v>0.47619047599999997</v>
+      </c>
+      <c r="Z40">
+        <v>3.4969999999999999</v>
+      </c>
+      <c r="AA40">
+        <v>3.3329507949999999</v>
+      </c>
+      <c r="AB40">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AC40">
+        <v>0.24237161500000001</v>
+      </c>
+      <c r="AD40">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="AE40">
+        <v>0.47097876799999999</v>
+      </c>
+      <c r="AF40">
+        <v>0.61</v>
+      </c>
+      <c r="AG40">
+        <v>0.525014286</v>
+      </c>
+      <c r="AH40">
+        <v>93.864999999999995</v>
+      </c>
+      <c r="AI40">
+        <v>3.6863023479999999</v>
+      </c>
+      <c r="AJ40">
+        <v>22.1</v>
+      </c>
+      <c r="AK40">
+        <v>24.039342749999999</v>
+      </c>
+      <c r="AL40">
+        <v>12.3</v>
+      </c>
+      <c r="AM40">
+        <v>22.33853173</v>
+      </c>
+      <c r="AN40">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AO40">
+        <v>2.2271057449999998</v>
+      </c>
+      <c r="AP40">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AQ40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AR40">
+        <v>912348.8</v>
+      </c>
+      <c r="AS40">
+        <v>4115.5213720000002</v>
+      </c>
+      <c r="AT40">
+        <v>1</v>
+      </c>
+      <c r="AU40">
+        <v>0.63245553200000004</v>
+      </c>
+      <c r="AV40">
+        <v>1087.7</v>
+      </c>
+      <c r="AW40">
+        <v>124.8487485</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>3.2182270000000002</v>
+      </c>
+      <c r="C41">
+        <v>872</v>
+      </c>
+      <c r="D41">
+        <v>38803</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>21</v>
+      </c>
+      <c r="N41">
+        <v>1724</v>
+      </c>
+      <c r="O41">
+        <v>32</v>
+      </c>
+      <c r="P41">
+        <v>40095</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>81494</v>
+      </c>
+      <c r="S41">
+        <v>53</v>
+      </c>
+      <c r="T41">
+        <v>16.46869534</v>
+      </c>
+      <c r="U41">
+        <v>25322.63883</v>
+      </c>
+      <c r="V41">
+        <v>0.396226415</v>
+      </c>
+      <c r="W41">
+        <v>0.603773585</v>
+      </c>
+      <c r="X41">
+        <v>3.1855106000000001E-2</v>
+      </c>
+      <c r="Y41">
+        <v>0.96814489400000003</v>
+      </c>
+      <c r="Z41">
+        <v>10.427</v>
+      </c>
+      <c r="AA41">
+        <v>8.0471772070000007</v>
+      </c>
+      <c r="AB41">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="AC41">
+        <v>2.4731576980000001</v>
+      </c>
+      <c r="AD41">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="AE41">
+        <v>1.220164333</v>
+      </c>
+      <c r="AF41">
+        <v>0.152</v>
+      </c>
+      <c r="AG41">
+        <v>0.16857046000000001</v>
+      </c>
+      <c r="AH41">
+        <v>83.8</v>
+      </c>
+      <c r="AI41">
+        <v>8.5422409239999997</v>
+      </c>
+      <c r="AJ41">
+        <v>10.5</v>
+      </c>
+      <c r="AK41">
+        <v>14.493101810000001</v>
+      </c>
+      <c r="AL41">
+        <v>6.6</v>
+      </c>
+      <c r="AM41">
+        <v>14.69149414</v>
+      </c>
+      <c r="AN41">
+        <v>3.9</v>
+      </c>
+      <c r="AO41">
+        <v>1.6401219469999999</v>
+      </c>
+      <c r="AP41">
+        <v>1.05</v>
+      </c>
+      <c r="AQ41">
+        <v>0.04</v>
+      </c>
+      <c r="AR41">
+        <v>914438.8</v>
+      </c>
+      <c r="AS41">
+        <v>2289.493254</v>
+      </c>
+      <c r="AT41">
+        <v>0.8</v>
+      </c>
+      <c r="AU41">
+        <v>0.87177978899999997</v>
+      </c>
+      <c r="AV41">
+        <v>1553.9</v>
+      </c>
+      <c r="AW41">
+        <v>256.97760599999998</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>1</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>5.1764570000000001</v>
+      </c>
+      <c r="C42">
+        <v>499</v>
+      </c>
+      <c r="D42">
+        <v>216</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>819</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <v>484</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>2018</v>
+      </c>
+      <c r="S42">
+        <v>11</v>
+      </c>
+      <c r="T42">
+        <v>2.1250055780000001</v>
+      </c>
+      <c r="U42">
+        <v>389.84193240000002</v>
+      </c>
+      <c r="V42">
+        <v>0.54545454500000001</v>
+      </c>
+      <c r="W42">
+        <v>0.45454545499999999</v>
+      </c>
+      <c r="X42">
+        <v>0.65312190299999995</v>
+      </c>
+      <c r="Y42">
+        <v>0.346878097</v>
+      </c>
+      <c r="Z42">
+        <v>6.4589999999999996</v>
+      </c>
+      <c r="AA42">
+        <v>7.0890555790000001</v>
+      </c>
+      <c r="AB42">
+        <v>2.48</v>
+      </c>
+      <c r="AC42">
+        <v>1.677790213</v>
+      </c>
+      <c r="AD42">
+        <v>2.3290000000000002</v>
+      </c>
+      <c r="AE42">
+        <v>1.3997389039999999</v>
+      </c>
+      <c r="AF42">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="AG42">
+        <v>0.25415743200000002</v>
+      </c>
+      <c r="AH42">
+        <v>88.305999999999997</v>
+      </c>
+      <c r="AI42">
+        <v>9.8756257519999995</v>
+      </c>
+      <c r="AJ42">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AK42">
+        <v>16.11955334</v>
+      </c>
+      <c r="AL42">
+        <v>12.8</v>
+      </c>
+      <c r="AM42">
+        <v>16.654128620000002</v>
+      </c>
+      <c r="AN42">
+        <v>6.6</v>
+      </c>
+      <c r="AO42">
+        <v>3.2310988840000001</v>
+      </c>
+      <c r="AP42">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="AQ42">
+        <v>3.6455451999999999E-2</v>
+      </c>
+      <c r="AR42">
+        <v>915395.6</v>
+      </c>
+      <c r="AS42">
+        <v>1553.6284760000001</v>
+      </c>
+      <c r="AT42">
+        <v>0.6</v>
+      </c>
+      <c r="AU42">
+        <v>0.66332495800000002</v>
+      </c>
+      <c r="AV42">
+        <v>1136.4000000000001</v>
+      </c>
+      <c r="AW42">
+        <v>152.35038560000001</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>1</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>27999</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>60</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>40</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>100</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>166666.6667</v>
+      </c>
+      <c r="U43">
+        <v>8333333.3329999996</v>
+      </c>
+      <c r="V43">
+        <v>0.5</v>
+      </c>
+      <c r="W43">
+        <v>0.5</v>
+      </c>
+      <c r="X43">
+        <v>0.6</v>
+      </c>
+      <c r="Y43">
+        <v>0.4</v>
+      </c>
+      <c r="Z43">
+        <v>6.4779999999999998</v>
+      </c>
+      <c r="AA43">
+        <v>4.4326398459999998</v>
+      </c>
+      <c r="AB43">
+        <v>1.472</v>
+      </c>
+      <c r="AC43">
+        <v>1.084553364</v>
+      </c>
+      <c r="AD43">
+        <v>2.15</v>
+      </c>
+      <c r="AE43">
+        <v>1.712080606</v>
+      </c>
+      <c r="AF43">
+        <v>16.823</v>
+      </c>
+      <c r="AG43">
+        <v>25.815486069999999</v>
+      </c>
+      <c r="AH43">
+        <v>73.076999999999998</v>
+      </c>
+      <c r="AI43">
+        <v>24.921881970000001</v>
+      </c>
+      <c r="AJ43">
+        <v>25.57</v>
+      </c>
+      <c r="AK43">
+        <v>22.542939029999999</v>
+      </c>
+      <c r="AL43">
+        <v>7.6879999999999997</v>
+      </c>
+      <c r="AM43">
+        <v>15.559823140000001</v>
+      </c>
+      <c r="AN43">
+        <v>17.882000000000001</v>
+      </c>
+      <c r="AO43">
+        <v>12.565401550000001</v>
+      </c>
+      <c r="AP43">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="AQ43">
+        <v>7.0434366999999998E-2</v>
+      </c>
+      <c r="AR43">
+        <v>913179.2</v>
+      </c>
+      <c r="AS43">
+        <v>2368.4660349999999</v>
+      </c>
+      <c r="AT43">
+        <v>1.3</v>
+      </c>
+      <c r="AU43">
+        <v>0.78102496799999999</v>
+      </c>
+      <c r="AV43">
+        <v>1227.4000000000001</v>
+      </c>
+      <c r="AW43">
+        <v>168.68621759999999</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>80</v>
+      </c>
+      <c r="B44">
+        <v>5.3850100000000003</v>
+      </c>
+      <c r="C44">
+        <v>482</v>
+      </c>
+      <c r="D44">
+        <v>671</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="N44">
+        <v>746</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <v>1594</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>3493</v>
+      </c>
+      <c r="S44">
+        <v>12</v>
+      </c>
+      <c r="T44">
+        <v>2.2284081179999999</v>
+      </c>
+      <c r="U44">
+        <v>648.65246300000001</v>
+      </c>
+      <c r="V44">
+        <v>0.5</v>
+      </c>
+      <c r="W44">
+        <v>0.5</v>
+      </c>
+      <c r="X44">
+        <v>0.35156026299999998</v>
+      </c>
+      <c r="Y44">
+        <v>0.64843973700000002</v>
+      </c>
+      <c r="Z44">
+        <v>10.648999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>12.428853889999999</v>
+      </c>
+      <c r="AB44">
+        <v>2.98</v>
+      </c>
+      <c r="AC44">
+        <v>1.8404999319999999</v>
+      </c>
+      <c r="AD44">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="AE44">
+        <v>1.546053363</v>
+      </c>
+      <c r="AF44">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="AG44">
+        <v>0.499388626</v>
+      </c>
+      <c r="AH44">
+        <v>83.561999999999998</v>
+      </c>
+      <c r="AI44">
+        <v>15.525934299999999</v>
+      </c>
+      <c r="AJ44">
+        <v>22.597000000000001</v>
+      </c>
+      <c r="AK44">
+        <v>19.22908425</v>
+      </c>
+      <c r="AL44">
+        <v>19.2</v>
+      </c>
+      <c r="AM44">
+        <v>19.025246379999999</v>
+      </c>
+      <c r="AN44">
+        <v>3.3969999999999998</v>
+      </c>
+      <c r="AO44">
+        <v>1.2010333049999999</v>
+      </c>
+      <c r="AP44">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AQ44">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AR44">
+        <v>915283.6</v>
+      </c>
+      <c r="AS44">
+        <v>2963.7184480000001</v>
+      </c>
+      <c r="AT44">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AU44">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AV44">
+        <v>1096.9659999999999</v>
+      </c>
+      <c r="AW44">
+        <v>215.98169920000001</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>1</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="C45">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>65</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>65</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>204</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>16129.03226</v>
+      </c>
+      <c r="U45">
+        <v>1645161.29</v>
+      </c>
+      <c r="V45">
+        <v>0.5</v>
+      </c>
+      <c r="W45">
+        <v>0.5</v>
+      </c>
+      <c r="X45">
+        <v>0.5</v>
+      </c>
+      <c r="Y45">
+        <v>0.5</v>
+      </c>
+      <c r="Z45">
+        <v>3.593</v>
+      </c>
+      <c r="AA45">
+        <v>4.0890978220000003</v>
+      </c>
+      <c r="AB45">
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="AC45">
+        <v>1.761370205</v>
+      </c>
+      <c r="AD45">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="AE45">
+        <v>0.57202185299999997</v>
+      </c>
+      <c r="AF45">
+        <v>0.05</v>
+      </c>
+      <c r="AG45">
+        <v>0.1</v>
+      </c>
+      <c r="AH45">
+        <v>92.043000000000006</v>
+      </c>
+      <c r="AI45">
+        <v>5.5575355149999996</v>
+      </c>
+      <c r="AJ45">
+        <v>6</v>
+      </c>
+      <c r="AK45">
+        <v>6.0332412519999998</v>
+      </c>
+      <c r="AL45">
+        <v>3</v>
+      </c>
+      <c r="AM45">
+        <v>6.0332412519999998</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="AQ45">
+        <v>2.2271057E-2</v>
+      </c>
+      <c r="AR45">
+        <v>914277.6</v>
+      </c>
+      <c r="AS45">
+        <v>1396.73127</v>
+      </c>
+      <c r="AT45">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AU45">
+        <v>0.83066238599999997</v>
+      </c>
+      <c r="AV45">
+        <v>1386.8</v>
+      </c>
+      <c r="AW45">
+        <v>319.94805830000001</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>80</v>
+      </c>
+      <c r="B46">
+        <v>7.1019999999999998E-3</v>
+      </c>
+      <c r="C46">
+        <v>320</v>
+      </c>
+      <c r="D46">
+        <v>347</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>12</v>
+      </c>
+      <c r="N46">
+        <v>1280</v>
+      </c>
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="P46">
+        <v>1126</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>3073</v>
+      </c>
+      <c r="S46">
+        <v>20</v>
+      </c>
+      <c r="T46">
+        <v>2816.1081389999999</v>
+      </c>
+      <c r="U46">
+        <v>432695.01549999998</v>
+      </c>
+      <c r="V46">
+        <v>0.6</v>
+      </c>
+      <c r="W46">
+        <v>0.4</v>
+      </c>
+      <c r="X46">
+        <v>0.52066384600000004</v>
+      </c>
+      <c r="Y46">
+        <v>0.47933615400000001</v>
+      </c>
+      <c r="Z46">
+        <v>13.61</v>
+      </c>
+      <c r="AA46">
+        <v>6.1167785639999996</v>
+      </c>
+      <c r="AB46">
+        <v>16.081</v>
+      </c>
+      <c r="AC46">
+        <v>2.3409419040000001</v>
+      </c>
+      <c r="AD46">
+        <v>11.27</v>
+      </c>
+      <c r="AE46">
+        <v>2.9571641820000001</v>
+      </c>
+      <c r="AF46">
+        <v>3.7120000000000002</v>
+      </c>
+      <c r="AG46">
+        <v>10.01744858</v>
+      </c>
+      <c r="AH46">
+        <v>55.326999999999998</v>
+      </c>
+      <c r="AI46">
+        <v>13.10632828</v>
+      </c>
+      <c r="AJ46">
+        <v>16.5</v>
+      </c>
+      <c r="AK46">
+        <v>7.7878109889999996</v>
+      </c>
+      <c r="AL46">
+        <v>4.3</v>
+      </c>
+      <c r="AM46">
+        <v>7.335529974</v>
+      </c>
+      <c r="AN46">
+        <v>12.2</v>
+      </c>
+      <c r="AO46">
+        <v>5.4918120869999996</v>
+      </c>
+      <c r="AP46">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AQ46">
+        <v>4.2720018999999998E-2</v>
+      </c>
+      <c r="AR46">
+        <v>914397.2</v>
+      </c>
+      <c r="AS46">
+        <v>2607.294414</v>
+      </c>
+      <c r="AT46">
+        <v>15.2</v>
+      </c>
+      <c r="AU46">
+        <v>6.3843558800000002</v>
+      </c>
+      <c r="AV46">
+        <v>3669.8</v>
+      </c>
+      <c r="AW46">
+        <v>567.04458380000005</v>
+      </c>
+      <c r="AX46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>5</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>53</v>
+      </c>
+      <c r="B47">
+        <v>3.1E-4</v>
+      </c>
+      <c r="C47">
+        <v>33</v>
+      </c>
+      <c r="D47">
+        <v>33</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>61</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>61</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>188</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>6451.6129030000002</v>
+      </c>
+      <c r="U47">
+        <v>606451.61289999995</v>
+      </c>
+      <c r="V47">
+        <v>0.5</v>
+      </c>
+      <c r="W47">
+        <v>0.5</v>
+      </c>
+      <c r="X47">
+        <v>0.5</v>
+      </c>
+      <c r="Y47">
+        <v>0.5</v>
+      </c>
+      <c r="Z47">
+        <v>9.0690000000000008</v>
+      </c>
+      <c r="AA47">
+        <v>5.6279293709999996</v>
+      </c>
+      <c r="AB47">
+        <v>2.806</v>
+      </c>
+      <c r="AC47">
+        <v>1.316420905</v>
+      </c>
+      <c r="AD47">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="AE47">
+        <v>1.5429792609999999</v>
+      </c>
+      <c r="AF47">
+        <v>4.835</v>
+      </c>
+      <c r="AG47">
+        <v>9.6796231850000005</v>
+      </c>
+      <c r="AH47">
+        <v>79.805999999999997</v>
+      </c>
+      <c r="AI47">
+        <v>10.53338711</v>
+      </c>
+      <c r="AJ47">
+        <v>27.2</v>
+      </c>
+      <c r="AK47">
+        <v>27.396350120000001</v>
+      </c>
+      <c r="AL47">
+        <v>14.5</v>
+      </c>
+      <c r="AM47">
+        <v>19.392008659999998</v>
+      </c>
+      <c r="AN47">
+        <v>12.7</v>
+      </c>
+      <c r="AO47">
+        <v>14.114177270000001</v>
+      </c>
+      <c r="AP47">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="AQ47">
+        <v>4.2142615000000001E-2</v>
+      </c>
+      <c r="AR47">
+        <v>915391.2</v>
+      </c>
+      <c r="AS47">
+        <v>1896.8047240000001</v>
+      </c>
+      <c r="AT47">
+        <v>0.8</v>
+      </c>
+      <c r="AU47">
+        <v>0.6</v>
+      </c>
+      <c r="AV47">
+        <v>1544.9</v>
+      </c>
+      <c r="AW47">
+        <v>230.0719235</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5683</v>
+      </c>
+      <c r="B48">
+        <v>9.6409491379999999</v>
+      </c>
+      <c r="C48">
+        <v>2063.5891969999998</v>
+      </c>
+      <c r="D48">
+        <v>56317.681089999998</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>590</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>121604.9936</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>30434.794689999999</v>
+      </c>
+      <c r="U48">
+        <v>3258413.0269999998</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0.57228641700000005</v>
+      </c>
+      <c r="Y48">
+        <v>0.42771358300000001</v>
+      </c>
+      <c r="Z48">
+        <v>28.245000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>4.2555381560000001</v>
+      </c>
+      <c r="AB48">
+        <v>2.524</v>
+      </c>
+      <c r="AC48">
+        <v>1.3355613049999999</v>
+      </c>
+      <c r="AD48">
+        <v>11.779</v>
+      </c>
+      <c r="AE48">
+        <v>4.6902632119999996</v>
+      </c>
+      <c r="AF48">
+        <v>0.18</v>
+      </c>
+      <c r="AG48">
+        <v>0.231170932</v>
+      </c>
+      <c r="AH48">
+        <v>57.271999999999998</v>
+      </c>
+      <c r="AI48">
+        <v>8.0535790800000004</v>
+      </c>
+      <c r="AJ48">
+        <v>16.7</v>
+      </c>
+      <c r="AK48">
+        <v>12.72045597</v>
+      </c>
+      <c r="AL48">
+        <v>13</v>
+      </c>
+      <c r="AM48">
+        <v>12.74362586</v>
+      </c>
+      <c r="AN48">
+        <v>3.7</v>
+      </c>
+      <c r="AO48">
+        <v>1.417744688</v>
+      </c>
+      <c r="AP48">
+        <v>2.13</v>
+      </c>
+      <c r="AQ48">
+        <v>0.18493241999999999</v>
+      </c>
+      <c r="AR48">
+        <v>921257.6</v>
+      </c>
+      <c r="AS48">
+        <v>1602.285568</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>21007.9</v>
+      </c>
+      <c r="AW48">
+        <v>4626.9282350000003</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3814</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5.5000000000000002E-5</v>
+      </c>
+      <c r="C49">
+        <v>2063.5891969999998</v>
+      </c>
+      <c r="D49">
+        <v>56317.681089999998</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>25.37475813</v>
+      </c>
+      <c r="N49">
+        <v>3143.8112540000002</v>
+      </c>
+      <c r="O49">
+        <v>35.595914139999998</v>
+      </c>
+      <c r="P49">
+        <v>53377.0864</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>121604.9936</v>
+      </c>
+      <c r="S49">
+        <v>60.970672280000002</v>
+      </c>
+      <c r="T49">
+        <v>30434.794689999999</v>
+      </c>
+      <c r="U49">
+        <v>3258413.0269999998</v>
+      </c>
+      <c r="V49">
+        <v>0.64432566199999997</v>
+      </c>
+      <c r="W49">
+        <v>0.35567433799999998</v>
+      </c>
+      <c r="X49">
+        <v>0.57228641700000005</v>
+      </c>
+      <c r="Y49">
+        <v>0.42771358300000001</v>
+      </c>
+      <c r="Z49">
+        <v>5.2480000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>6.986845926</v>
+      </c>
+      <c r="AB49">
+        <v>1.855</v>
+      </c>
+      <c r="AC49">
+        <v>1.3916842309999999</v>
+      </c>
+      <c r="AD49">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="AE49">
+        <v>1.3869664740000001</v>
+      </c>
+      <c r="AF49">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="AG49">
+        <v>0.56948134299999997</v>
+      </c>
+      <c r="AH49">
+        <v>89.903000000000006</v>
+      </c>
+      <c r="AI49">
+        <v>8.9324666809999993</v>
+      </c>
+      <c r="AJ49">
+        <v>23.8</v>
+      </c>
+      <c r="AK49">
+        <v>17.74147683</v>
+      </c>
+      <c r="AL49">
+        <v>12.4</v>
+      </c>
+      <c r="AM49">
+        <v>18.687964040000001</v>
+      </c>
+      <c r="AN49">
+        <v>11.4</v>
+      </c>
+      <c r="AO49">
+        <v>5.0039984009999996</v>
+      </c>
+      <c r="AP49">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AQ49">
+        <v>1.9899749000000001E-2</v>
+      </c>
+      <c r="AR49">
+        <v>918452</v>
+      </c>
+      <c r="AS49">
+        <v>2396.8425900000002</v>
+      </c>
+      <c r="AT49">
+        <v>1.8</v>
+      </c>
+      <c r="AU49">
+        <v>2.1354156500000001</v>
+      </c>
+      <c r="AV49">
+        <v>1299.5999999999999</v>
+      </c>
+      <c r="AW49">
+        <v>194.18661130000001</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>80</v>
+      </c>
+      <c r="B50">
+        <v>0.52914399999999995</v>
+      </c>
+      <c r="C50">
+        <v>546</v>
+      </c>
+      <c r="D50">
+        <v>337</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>798</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>509</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>2190</v>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="T50">
+        <v>18.898447300000001</v>
+      </c>
+      <c r="U50">
+        <v>4138.759959</v>
+      </c>
+      <c r="V50">
+        <v>0.6</v>
+      </c>
+      <c r="W50">
+        <v>0.4</v>
+      </c>
+      <c r="X50">
+        <v>0.61369863000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0.38630136999999998</v>
+      </c>
+      <c r="Z50">
+        <v>5.952</v>
+      </c>
+      <c r="AA50">
+        <v>6.3130021379999999</v>
+      </c>
+      <c r="AB50">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AC50">
+        <v>0.36049410500000001</v>
+      </c>
+      <c r="AD50">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="AE50">
+        <v>0.77720589299999998</v>
+      </c>
+      <c r="AF50">
+        <v>0.378</v>
+      </c>
+      <c r="AG50">
+        <v>0.34116858</v>
+      </c>
+      <c r="AH50">
+        <v>90.757999999999996</v>
+      </c>
+      <c r="AI50">
+        <v>6.6501275179999997</v>
+      </c>
+      <c r="AJ50">
+        <v>11.991</v>
+      </c>
+      <c r="AK50">
+        <v>8.7438394880000008</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>11.991</v>
+      </c>
+      <c r="AO50">
+        <v>8.7438394880000008</v>
+      </c>
+      <c r="AP50">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AQ50">
+        <v>2.0223748E-2</v>
+      </c>
+      <c r="AR50">
+        <v>916376.8</v>
+      </c>
+      <c r="AS50">
+        <v>816.49357620000001</v>
+      </c>
+      <c r="AT50">
+        <v>4.8</v>
+      </c>
+      <c r="AU50">
+        <v>4.621688003</v>
+      </c>
+      <c r="AV50">
+        <v>1493.8</v>
+      </c>
+      <c r="AW50">
+        <v>361.12734599999999</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>1</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
